--- a/posesiones/1486010.xlsx
+++ b/posesiones/1486010.xlsx
@@ -1928,10 +1928,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>13</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>22</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2469,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R14">
         <v>19</v>
@@ -2522,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>13</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>15</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2819,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R21">
         <v>25</v>
@@ -2872,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R22">
         <v>19</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>19</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R31">
         <v>29</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R34">
         <v>17</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R38">
         <v>17</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3810,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R41">
         <v>10</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R43">
         <v>19</v>
@@ -3963,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R44">
         <v>10</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4063,7 +4063,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R46">
         <v>18</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4260,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R50">
         <v>12</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4457,7 +4457,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R54">
         <v>19</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R56">
         <v>13</v>
@@ -4610,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R57">
         <v>21</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4710,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R59">
         <v>18</v>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4904,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R65">
         <v>25</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R69">
         <v>26</v>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R71">
         <v>12</v>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5404,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R73">
         <v>21</v>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5739,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5789,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R81">
         <v>14</v>
@@ -5839,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R85">
         <v>9</v>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R87">
         <v>5</v>
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6424,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R94">
         <v>4</v>
@@ -6477,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R95">
         <v>9</v>
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R97">
         <v>4</v>
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R99">
         <v>10</v>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6824,7 +6824,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R102">
         <v>17</v>
@@ -6874,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6974,7 +6974,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R105">
         <v>20</v>
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7450,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7500,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R116">
         <v>15</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7603,7 +7603,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R118">
         <v>16</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7703,7 +7703,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R120">
         <v>9</v>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7803,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R122">
         <v>18</v>
@@ -7856,7 +7856,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R123">
         <v>11</v>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7959,7 +7959,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R125">
         <v>6</v>
@@ -8003,10 +8003,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8053,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8194,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8241,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8382,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8423,10 +8423,10 @@
         <v>1</v>
       </c>
       <c r="P135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q135">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8520,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8570,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R138">
         <v>24</v>
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8673,7 +8673,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R140">
         <v>6</v>
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8773,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R142">
         <v>5</v>
@@ -8826,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R143">
         <v>23</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9114,7 +9114,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R149">
         <v>17</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9311,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R153">
         <v>11</v>
@@ -9364,7 +9364,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R154">
         <v>22</v>
@@ -9417,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R156">
         <v>18</v>
@@ -9514,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R161">
         <v>15</v>
@@ -9758,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9808,7 +9808,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R163">
         <v>14</v>
@@ -9861,7 +9861,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R164">
         <v>22</v>
@@ -9914,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R165">
         <v>24</v>
@@ -9967,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10017,7 +10017,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R167">
         <v>23</v>
@@ -10067,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10117,7 +10117,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R169">
         <v>6</v>
@@ -10170,7 +10170,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R170">
         <v>17</v>
@@ -10220,7 +10220,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10270,7 +10270,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R172">
         <v>17</v>
@@ -10320,7 +10320,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10370,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R174">
         <v>16</v>
@@ -10420,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10464,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10558,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10652,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10746,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10796,7 +10796,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R183">
         <v>16</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10893,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10943,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10993,7 +10993,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R187">
         <v>9</v>
@@ -11046,7 +11046,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R188">
         <v>10</v>
@@ -11096,7 +11096,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11146,7 +11146,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R190">
         <v>6</v>
@@ -11196,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11246,7 +11246,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R192">
         <v>16</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11343,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R194">
         <v>27</v>
@@ -11396,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R195">
         <v>7</v>
@@ -11443,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11587,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R199">
         <v>18</v>
@@ -11640,7 +11640,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R200">
         <v>17</v>
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11743,7 +11743,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R202">
         <v>6</v>
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11846,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R204">
         <v>10</v>
@@ -11896,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11946,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R206">
         <v>11</v>
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12049,7 +12049,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R208">
         <v>22</v>
@@ -12099,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12146,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12334,7 +12334,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12384,7 +12384,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R215">
         <v>29</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12531,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12625,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12675,7 +12675,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R221">
         <v>20</v>
@@ -12728,7 +12728,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12778,7 +12778,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R223">
         <v>19</v>
@@ -12831,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12878,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12928,7 +12928,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12978,7 +12978,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R227">
         <v>15</v>
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13078,7 +13078,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13172,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13219,7 +13219,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13266,7 +13266,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13316,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13366,7 +13366,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R235">
         <v>25</v>
@@ -13416,7 +13416,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13557,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13604,7 +13604,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13651,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13795,7 +13795,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R244">
         <v>13</v>
@@ -13848,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13895,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13995,7 +13995,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R248">
         <v>23</v>
@@ -14039,10 +14039,10 @@
         <v>1</v>
       </c>
       <c r="P249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q249">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14089,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14136,7 +14136,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14183,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14230,7 +14230,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14324,7 +14324,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14371,7 +14371,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14418,7 +14418,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14459,10 +14459,10 @@
         <v>1</v>
       </c>
       <c r="P258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q258">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14509,7 +14509,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14556,7 +14556,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14603,7 +14603,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14653,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R262">
         <v>10</v>
@@ -14703,7 +14703,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14750,7 +14750,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14797,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14847,7 +14847,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R266">
         <v>29</v>
@@ -14900,7 +14900,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14950,7 +14950,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R268">
         <v>8</v>
@@ -15000,7 +15000,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15050,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R270">
         <v>23</v>
@@ -15103,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15150,7 +15150,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15197,7 +15197,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15244,7 +15244,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15294,7 +15294,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R275">
         <v>18</v>
@@ -15347,7 +15347,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15397,7 +15397,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R277">
         <v>11</v>
@@ -15450,7 +15450,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R278">
         <v>18</v>
@@ -15503,7 +15503,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R279">
         <v>9</v>
@@ -15556,7 +15556,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15606,7 +15606,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R281">
         <v>5</v>
@@ -15656,7 +15656,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15706,7 +15706,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R283">
         <v>13</v>
@@ -15759,7 +15759,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15809,7 +15809,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R285">
         <v>12</v>
@@ -15859,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15909,7 +15909,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R287">
         <v>4</v>
@@ -15962,7 +15962,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R288">
         <v>20</v>
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16062,7 +16062,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R290">
         <v>11</v>
@@ -16115,7 +16115,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R291">
         <v>14</v>
@@ -16168,7 +16168,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16218,7 +16218,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R293">
         <v>18</v>
@@ -16268,7 +16268,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16368,7 +16368,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R296">
         <v>10</v>
@@ -16418,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16462,7 +16462,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16509,7 +16509,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16556,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16606,7 +16606,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R301">
         <v>21</v>
@@ -16659,7 +16659,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R302">
         <v>13</v>
@@ -16712,7 +16712,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16806,7 +16806,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16853,7 +16853,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16903,7 +16903,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R307">
         <v>19</v>
@@ -16956,7 +16956,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R308">
         <v>14</v>
@@ -17006,7 +17006,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17053,7 +17053,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17100,7 +17100,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17150,7 +17150,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R312">
         <v>25</v>
@@ -17203,7 +17203,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R313">
         <v>20</v>
@@ -17253,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17303,7 +17303,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R315">
         <v>8</v>
@@ -17353,7 +17353,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17403,7 +17403,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R317">
         <v>5</v>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17500,7 +17500,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17547,7 +17547,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17594,7 +17594,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17641,7 +17641,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17688,7 +17688,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17735,7 +17735,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17829,7 +17829,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17879,7 +17879,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17929,7 +17929,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R328">
         <v>36</v>
@@ -17979,7 +17979,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18026,7 +18026,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18123,7 +18123,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R332">
         <v>0</v>
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18223,7 +18223,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R334">
         <v>13</v>
@@ -18276,7 +18276,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18326,7 +18326,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R336">
         <v>18</v>
@@ -18379,7 +18379,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R337">
         <v>9</v>
@@ -18429,7 +18429,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18479,7 +18479,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R339">
         <v>5</v>
@@ -18529,7 +18529,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18579,7 +18579,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18626,7 +18626,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18673,7 +18673,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18723,7 +18723,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R344">
         <v>22</v>
@@ -18773,7 +18773,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18823,7 +18823,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18873,7 +18873,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R347">
         <v>26</v>
@@ -18926,7 +18926,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18976,7 +18976,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R349">
         <v>17</v>
@@ -19026,7 +19026,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19076,7 +19076,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R351">
         <v>15</v>
@@ -19126,7 +19126,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19176,7 +19176,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R353">
         <v>8</v>
@@ -19226,7 +19226,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19276,7 +19276,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R355">
         <v>25</v>
@@ -19329,7 +19329,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19379,7 +19379,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R357">
         <v>21</v>
@@ -19432,7 +19432,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19482,7 +19482,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R359">
         <v>7</v>
@@ -19532,7 +19532,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19582,7 +19582,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R361">
         <v>14</v>
@@ -19632,7 +19632,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19673,10 +19673,10 @@
         <v>1</v>
       </c>
       <c r="P363" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q363">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19723,7 +19723,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19770,7 +19770,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19864,7 +19864,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19911,7 +19911,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19958,7 +19958,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19999,10 +19999,10 @@
         <v>1</v>
       </c>
       <c r="P370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q370">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20049,7 +20049,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20096,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20146,7 +20146,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R373">
         <v>18</v>
@@ -20199,7 +20199,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20249,7 +20249,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R375">
         <v>17</v>
@@ -20302,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20352,7 +20352,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R377">
         <v>13</v>
@@ -20405,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20452,7 +20452,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20546,7 +20546,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20593,7 +20593,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20643,7 +20643,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R383">
         <v>28</v>
@@ -20696,7 +20696,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20743,7 +20743,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20793,7 +20793,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20843,7 +20843,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R387">
         <v>29</v>
@@ -20893,7 +20893,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20943,7 +20943,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20990,7 +20990,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21037,7 +21037,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21087,7 +21087,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R392">
         <v>21</v>
@@ -21140,7 +21140,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R394">
         <v>9</v>
@@ -21243,7 +21243,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21290,7 +21290,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21337,7 +21337,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21384,7 +21384,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21431,7 +21431,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21478,7 +21478,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21525,7 +21525,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21575,7 +21575,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R402">
         <v>27</v>
@@ -21625,7 +21625,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21675,7 +21675,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21725,7 +21725,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R405">
         <v>27</v>
@@ -21775,7 +21775,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21822,7 +21822,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21869,7 +21869,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21916,7 +21916,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21963,7 +21963,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22010,7 +22010,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22057,7 +22057,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22104,7 +22104,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22154,7 +22154,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R414">
         <v>38</v>
@@ -22207,7 +22207,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22254,7 +22254,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22304,7 +22304,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22351,7 +22351,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22398,7 +22398,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22448,7 +22448,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R420">
         <v>22</v>
@@ -22498,7 +22498,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22545,7 +22545,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22639,7 +22639,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22686,7 +22686,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22733,7 +22733,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22780,7 +22780,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22830,7 +22830,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R428">
         <v>15</v>
@@ -22883,7 +22883,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R429">
         <v>17</v>
@@ -22936,7 +22936,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R430">
         <v>21</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23080,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23127,7 +23127,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23174,7 +23174,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23224,7 +23224,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R436">
         <v>5</v>
@@ -23277,7 +23277,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23327,7 +23327,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R438">
         <v>20</v>
@@ -23377,7 +23377,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23471,7 +23471,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R441">
         <v>14</v>
@@ -23524,7 +23524,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23571,7 +23571,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23762,7 +23762,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R447">
         <v>26</v>
@@ -23815,7 +23815,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23862,7 +23862,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23912,7 +23912,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23962,7 +23962,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R451">
         <v>13</v>
@@ -24012,7 +24012,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24106,7 +24106,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24153,7 +24153,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24200,7 +24200,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24250,7 +24250,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R457">
         <v>7</v>
@@ -24297,7 +24297,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24347,7 +24347,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R459">
         <v>15</v>
@@ -24400,7 +24400,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24447,7 +24447,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24541,7 +24541,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24591,7 +24591,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R464">
         <v>18</v>
@@ -24641,7 +24641,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24738,7 +24738,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24785,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24832,7 +24832,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24879,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24929,7 +24929,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R471">
         <v>28</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25029,7 +25029,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25076,7 +25076,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25170,7 +25170,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25217,7 +25217,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25267,7 +25267,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R478">
         <v>17</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25364,7 +25364,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25458,7 +25458,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25505,7 +25505,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25743,7 +25743,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25793,7 +25793,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R489">
         <v>16</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25890,7 +25890,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25940,7 +25940,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25990,7 +25990,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R493">
         <v>21</v>
@@ -26043,7 +26043,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R494">
         <v>9</v>
@@ -26096,7 +26096,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26146,7 +26146,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R496">
         <v>14</v>
@@ -26199,7 +26199,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26249,7 +26249,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R498">
         <v>14</v>
@@ -26299,7 +26299,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26349,7 +26349,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R500">
         <v>17</v>
@@ -26399,7 +26399,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26449,7 +26449,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26499,7 +26499,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R503">
         <v>6</v>
@@ -26549,7 +26549,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26596,7 +26596,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26643,7 +26643,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26690,7 +26690,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26740,7 +26740,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R508">
         <v>8</v>
@@ -26793,7 +26793,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R509">
         <v>6</v>
@@ -26843,7 +26843,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26890,7 +26890,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27034,7 +27034,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R514">
         <v>13</v>
@@ -27087,7 +27087,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27137,7 +27137,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R516">
         <v>4</v>
@@ -27193,7 +27193,7 @@
         <v>1</v>
       </c>
       <c r="Q517">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R517">
         <v>4</v>
@@ -27237,10 +27237,10 @@
         <v>1</v>
       </c>
       <c r="P518" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q518">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27281,7 +27281,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
